--- a/src/HeroEquip/HeroEquip.xlsx
+++ b/src/HeroEquip/HeroEquip.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnityProject\NT03_Server\src\HeroEquip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EA81C0-C14C-4C28-A197-DF807782FDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45004F9-742E-4FCD-91E0-034BC809BADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10215" yWindow="2055" windowWidth="13755" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10065" yWindow="4740" windowWidth="13755" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Index</t>
   </si>
@@ -55,13 +55,52 @@
   </si>
   <si>
     <t>HM1002</t>
+  </si>
+  <si>
+    <t>HeroEquipType</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Agi</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Crt</t>
+  </si>
+  <si>
+    <t>CrtRate</t>
+  </si>
+  <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>IconBorderName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +113,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -114,12 +165,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,93 +465,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>CONCATENATE(B2,"/",A2,"_Icon")</f>
+        <v>Weapon/WP1000_Icon</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>CONCATENATE(A2,"_Border")</f>
+        <v>WP1000_Border</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" ref="C3:C10" si="0">CONCATENATE(B3,"/",A3,"_Icon")</f>
+        <v>Weapon/WP1001_Icon</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D10" si="1">CONCATENATE(A3,"_Border")</f>
+        <v>WP1001_Border</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Weapon/WP1002_Icon</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>WP1002_Border</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Armor/AR1000_Icon</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>AR1000_Border</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Armor/AR1001_Icon</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>AR1001_Border</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Armor/AR1002_Icon</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>AR1002_Border</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Helmet/HM1000_Icon</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>HM1000_Border</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Helmet/HM1001_Icon</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>HM1001_Border</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Helmet/HM1002_Icon</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>HM1002_Border</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>